--- a/biology/Zoologie/Atheris_barbouri/Atheris_barbouri.xlsx
+++ b/biology/Zoologie/Atheris_barbouri/Atheris_barbouri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atheris barbouri est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atheris barbouri est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Ouest de la Tanzanie[1]. Elle se rencontre dans les monts Udzungwa et Ukinga, à environ 1 800 m d'altitude, et préfère les zones forestières plutôt humides, bien qu'elle puisse se rencontrer près des habitations et des cultures.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Ouest de la Tanzanie. Elle se rencontre dans les monts Udzungwa et Ukinga, à environ 1 800 m d'altitude, et préfère les zones forestières plutôt humides, bien qu'elle puisse se rencontrer près des habitations et des cultures.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce assez petite, environ 40 cm, avec une tête triangulaire bien distincte du corps, et une queue courte et arrondie. Elle est de couleur brun à noir, avec des lignes en zigzag sur le dos, plus ou moins irrégulières.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Thomas Barbour (1884-1946), un herpétologiste américain.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Loveridge, 1930 : Preliminary description of a new tree viper of the genus Atheris from Tanganyika Territory. Proceedings of the New England Zoölogical Club, vol. 11, p. 107-108.</t>
         </is>
